--- a/data/all_term_labels.xlsx
+++ b/data/all_term_labels.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q437"/>
+  <dimension ref="A1:R437"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,6 +514,11 @@
           <t>variant</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>extra_label</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -569,6 +574,11 @@
         <v>1</v>
       </c>
       <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>2P1</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -624,6 +634,11 @@
         <v>1</v>
       </c>
       <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>1S1</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -679,6 +694,11 @@
         <v>1</v>
       </c>
       <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>1D1</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -734,6 +754,11 @@
         <v>1</v>
       </c>
       <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>3P1</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -789,6 +814,11 @@
         <v>1</v>
       </c>
       <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>2P1</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -844,6 +874,11 @@
         <v>1</v>
       </c>
       <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>2D1</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -899,6 +934,11 @@
         <v>1</v>
       </c>
       <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>4S1</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -958,6 +998,11 @@
         <v>1</v>
       </c>
       <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>2D1</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1017,6 +1062,11 @@
         <v>1</v>
       </c>
       <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>1S1</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1076,6 +1126,11 @@
         <v>1</v>
       </c>
       <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>1D1</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1135,6 +1190,11 @@
         <v>1</v>
       </c>
       <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>1G1</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1194,6 +1254,11 @@
         <v>1</v>
       </c>
       <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>3P1</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1253,6 +1318,11 @@
         <v>1</v>
       </c>
       <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>3F1</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1312,6 +1382,11 @@
         <v>1</v>
       </c>
       <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>2P1</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1371,6 +1446,11 @@
         <v>1</v>
       </c>
       <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>2D1</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1430,6 +1510,11 @@
         <v>1</v>
       </c>
       <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>2D2</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1489,6 +1574,11 @@
         <v>1</v>
       </c>
       <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>2F1</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1548,6 +1638,11 @@
         <v>1</v>
       </c>
       <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>2G1</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1607,6 +1702,11 @@
         <v>1</v>
       </c>
       <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>2H1</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1666,6 +1766,11 @@
         <v>1</v>
       </c>
       <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>4P1</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1725,6 +1830,11 @@
         <v>1</v>
       </c>
       <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>4F1</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1784,6 +1894,11 @@
         <v>1</v>
       </c>
       <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>1S1</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1843,6 +1958,11 @@
         <v>1</v>
       </c>
       <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>1S2</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1902,6 +2022,11 @@
         <v>1</v>
       </c>
       <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>1D1</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1961,6 +2086,11 @@
         <v>1</v>
       </c>
       <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>1D2</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -2020,6 +2150,11 @@
         <v>1</v>
       </c>
       <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>1F1</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -2079,6 +2214,11 @@
         <v>1</v>
       </c>
       <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>1G1</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -2138,6 +2278,11 @@
         <v>1</v>
       </c>
       <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>1G2</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -2197,6 +2342,11 @@
         <v>1</v>
       </c>
       <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>1I1</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -2256,6 +2406,11 @@
         <v>1</v>
       </c>
       <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>3P1</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -2315,6 +2470,11 @@
         <v>1</v>
       </c>
       <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>3P2</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -2374,6 +2534,11 @@
         <v>1</v>
       </c>
       <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>3D1</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -2433,6 +2598,11 @@
         <v>1</v>
       </c>
       <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>3F1</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -2492,6 +2662,11 @@
         <v>1</v>
       </c>
       <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>3F2</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -2551,6 +2726,11 @@
         <v>1</v>
       </c>
       <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>3G1</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -2610,6 +2790,11 @@
         <v>1</v>
       </c>
       <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>3H1</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2669,6 +2854,11 @@
         <v>1</v>
       </c>
       <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>5D1</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2728,6 +2918,11 @@
         <v>1</v>
       </c>
       <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>2S1</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2787,6 +2982,11 @@
         <v>1</v>
       </c>
       <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>2P1</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2846,6 +3046,11 @@
         <v>1</v>
       </c>
       <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>2D1</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2905,6 +3110,11 @@
         <v>1</v>
       </c>
       <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>2D2</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2964,6 +3174,11 @@
         <v>1</v>
       </c>
       <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>2D3</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -3023,6 +3238,11 @@
         <v>1</v>
       </c>
       <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>2F1</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -3082,6 +3302,11 @@
         <v>1</v>
       </c>
       <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>2F2</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -3141,6 +3366,11 @@
         <v>1</v>
       </c>
       <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>2G1</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -3200,6 +3430,11 @@
         <v>1</v>
       </c>
       <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>2G2</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -3259,6 +3494,11 @@
         <v>1</v>
       </c>
       <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>2H1</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -3318,6 +3558,11 @@
         <v>1</v>
       </c>
       <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>2I1</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -3377,6 +3622,11 @@
         <v>1</v>
       </c>
       <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>4P1</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -3436,6 +3686,11 @@
         <v>1</v>
       </c>
       <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>4D1</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -3495,6 +3750,11 @@
         <v>1</v>
       </c>
       <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>4F1</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -3554,6 +3814,11 @@
         <v>1</v>
       </c>
       <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>4G1</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -3613,6 +3878,11 @@
         <v>1</v>
       </c>
       <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>6S1</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -3680,6 +3950,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>2F1</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -3747,6 +4022,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>1S1</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -3814,6 +4094,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>1D1</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -3881,6 +4166,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>1G1</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -3948,6 +4238,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>1I1</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -4015,6 +4310,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>3P1</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -4082,6 +4382,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>3F1</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -4149,6 +4454,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>3H1</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -4216,6 +4526,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>2P1</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -4283,6 +4598,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>2D1</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -4350,6 +4670,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>2D2</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -4417,6 +4742,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>2F1</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -4484,6 +4814,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>2F2</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -4551,6 +4886,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>2G1</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -4618,6 +4958,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>2G2</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -4685,6 +5030,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>2H1</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -4752,6 +5102,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>2H2</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -4819,6 +5174,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>2I1</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -4886,6 +5246,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>2K1</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -4953,6 +5318,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>2L1</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -5020,6 +5390,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>4S1</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -5087,6 +5462,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>4D1</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -5154,6 +5534,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>4F1</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -5221,6 +5606,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>4G1</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -5288,6 +5678,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>4I1</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -5355,6 +5750,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R80" t="inlineStr">
+        <is>
+          <t>1S1</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -5422,6 +5822,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R81" t="inlineStr">
+        <is>
+          <t>1S2</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -5489,6 +5894,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>1D1</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -5556,6 +5966,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R83" t="inlineStr">
+        <is>
+          <t>1D2</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -5623,6 +6038,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>1D3</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -5690,6 +6110,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>1D4</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -5757,6 +6182,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R86" t="inlineStr">
+        <is>
+          <t>1F1</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -5824,6 +6254,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>1G1</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -5891,6 +6326,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R88" t="inlineStr">
+        <is>
+          <t>1G2</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -5958,6 +6398,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R89" t="inlineStr">
+        <is>
+          <t>1G3</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -6025,6 +6470,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R90" t="inlineStr">
+        <is>
+          <t>1G4</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -6092,6 +6542,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R91" t="inlineStr">
+        <is>
+          <t>1H1</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -6159,6 +6614,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R92" t="inlineStr">
+        <is>
+          <t>1H2</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -6226,6 +6686,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R93" t="inlineStr">
+        <is>
+          <t>1I1</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -6293,6 +6758,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R94" t="inlineStr">
+        <is>
+          <t>1I2</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -6360,6 +6830,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R95" t="inlineStr">
+        <is>
+          <t>1I3</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -6427,6 +6902,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R96" t="inlineStr">
+        <is>
+          <t>1K1</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -6494,6 +6974,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R97" t="inlineStr">
+        <is>
+          <t>1L1</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -6561,6 +7046,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R98" t="inlineStr">
+        <is>
+          <t>1L2</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -6628,6 +7118,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R99" t="inlineStr">
+        <is>
+          <t>1N1</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -6695,6 +7190,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R100" t="inlineStr">
+        <is>
+          <t>3P1</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -6762,6 +7262,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R101" t="inlineStr">
+        <is>
+          <t>3P2</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -6829,6 +7334,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R102" t="inlineStr">
+        <is>
+          <t>3P3</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -6896,6 +7406,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R103" t="inlineStr">
+        <is>
+          <t>3D1</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -6963,6 +7478,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R104" t="inlineStr">
+        <is>
+          <t>3D2</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -7030,6 +7550,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R105" t="inlineStr">
+        <is>
+          <t>3F1</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -7097,6 +7622,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R106" t="inlineStr">
+        <is>
+          <t>3F2</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -7164,6 +7694,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R107" t="inlineStr">
+        <is>
+          <t>3F3</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -7231,6 +7766,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R108" t="inlineStr">
+        <is>
+          <t>3F4</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -7298,6 +7838,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R109" t="inlineStr">
+        <is>
+          <t>3G1</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -7365,6 +7910,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R110" t="inlineStr">
+        <is>
+          <t>3G2</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -7432,6 +7982,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R111" t="inlineStr">
+        <is>
+          <t>3G3</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -7499,6 +8054,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R112" t="inlineStr">
+        <is>
+          <t>3H1</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -7566,6 +8126,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R113" t="inlineStr">
+        <is>
+          <t>3H2</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -7633,6 +8198,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R114" t="inlineStr">
+        <is>
+          <t>3H3</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -7700,6 +8270,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R115" t="inlineStr">
+        <is>
+          <t>3H4</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -7767,6 +8342,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R116" t="inlineStr">
+        <is>
+          <t>3I1</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -7834,6 +8414,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R117" t="inlineStr">
+        <is>
+          <t>3I2</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -7901,6 +8486,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R118" t="inlineStr">
+        <is>
+          <t>3K1</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -7968,6 +8558,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R119" t="inlineStr">
+        <is>
+          <t>3K2</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -8035,6 +8630,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R120" t="inlineStr">
+        <is>
+          <t>3L1</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -8102,6 +8702,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R121" t="inlineStr">
+        <is>
+          <t>3M1</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -8169,6 +8774,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R122" t="inlineStr">
+        <is>
+          <t>5S1</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -8236,6 +8846,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R123" t="inlineStr">
+        <is>
+          <t>5D1</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -8303,6 +8918,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R124" t="inlineStr">
+        <is>
+          <t>5F1</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -8370,6 +8990,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R125" t="inlineStr">
+        <is>
+          <t>5G1</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -8437,6 +9062,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R126" t="inlineStr">
+        <is>
+          <t>5I1</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -8504,6 +9134,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R127" t="inlineStr">
+        <is>
+          <t>2P1</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -8571,6 +9206,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R128" t="inlineStr">
+        <is>
+          <t>2P2</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -8638,6 +9278,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R129" t="inlineStr">
+        <is>
+          <t>2P3</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -8705,6 +9350,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R130" t="inlineStr">
+        <is>
+          <t>2P4</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -8772,6 +9422,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R131" t="inlineStr">
+        <is>
+          <t>2D1</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -8839,6 +9494,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R132" t="inlineStr">
+        <is>
+          <t>2D2</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -8906,6 +9566,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R133" t="inlineStr">
+        <is>
+          <t>2D3</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -8973,6 +9638,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R134" t="inlineStr">
+        <is>
+          <t>2D4</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -9040,6 +9710,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R135" t="inlineStr">
+        <is>
+          <t>2D5</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -9107,6 +9782,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R136" t="inlineStr">
+        <is>
+          <t>2F1</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -9174,6 +9854,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R137" t="inlineStr">
+        <is>
+          <t>2F2</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -9241,6 +9926,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R138" t="inlineStr">
+        <is>
+          <t>2F3</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -9308,6 +9998,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R139" t="inlineStr">
+        <is>
+          <t>2F4</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -9375,6 +10070,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R140" t="inlineStr">
+        <is>
+          <t>2F5</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -9442,6 +10142,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R141" t="inlineStr">
+        <is>
+          <t>2F6</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -9509,6 +10214,11 @@
           <t>B</t>
         </is>
       </c>
+      <c r="R142" t="inlineStr">
+        <is>
+          <t>2F7</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -9576,6 +10286,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R143" t="inlineStr">
+        <is>
+          <t>2G1</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -9643,6 +10358,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R144" t="inlineStr">
+        <is>
+          <t>2G2</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -9710,6 +10430,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R145" t="inlineStr">
+        <is>
+          <t>2G3</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -9777,6 +10502,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R146" t="inlineStr">
+        <is>
+          <t>2G4</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -9844,6 +10574,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R147" t="inlineStr">
+        <is>
+          <t>2G5</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -9911,6 +10646,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R148" t="inlineStr">
+        <is>
+          <t>2G6</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -9978,6 +10718,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R149" t="inlineStr">
+        <is>
+          <t>2H1</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -10045,6 +10790,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R150" t="inlineStr">
+        <is>
+          <t>2H2</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -10112,6 +10862,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R151" t="inlineStr">
+        <is>
+          <t>2H3</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -10179,6 +10934,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R152" t="inlineStr">
+        <is>
+          <t>2H4</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -10246,6 +11006,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R153" t="inlineStr">
+        <is>
+          <t>2H5</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -10313,6 +11078,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R154" t="inlineStr">
+        <is>
+          <t>2H6</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -10380,6 +11150,11 @@
           <t>B</t>
         </is>
       </c>
+      <c r="R155" t="inlineStr">
+        <is>
+          <t>2H7</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -10447,6 +11222,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R156" t="inlineStr">
+        <is>
+          <t>2I1</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -10514,6 +11294,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R157" t="inlineStr">
+        <is>
+          <t>2I2</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -10581,6 +11366,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R158" t="inlineStr">
+        <is>
+          <t>2I3</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -10648,6 +11438,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R159" t="inlineStr">
+        <is>
+          <t>2I4</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -10715,6 +11510,11 @@
           <t>B</t>
         </is>
       </c>
+      <c r="R160" t="inlineStr">
+        <is>
+          <t>2I5</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -10782,6 +11582,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R161" t="inlineStr">
+        <is>
+          <t>2K1</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -10849,6 +11654,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R162" t="inlineStr">
+        <is>
+          <t>2K2</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -10916,6 +11726,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R163" t="inlineStr">
+        <is>
+          <t>2K3</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -10983,6 +11798,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R164" t="inlineStr">
+        <is>
+          <t>2K4</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -11050,6 +11870,11 @@
           <t>B</t>
         </is>
       </c>
+      <c r="R165" t="inlineStr">
+        <is>
+          <t>2K5</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -11117,6 +11942,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R166" t="inlineStr">
+        <is>
+          <t>2L1</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -11184,6 +12014,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R167" t="inlineStr">
+        <is>
+          <t>2L2</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -11251,6 +12086,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R168" t="inlineStr">
+        <is>
+          <t>2L3</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -11318,6 +12158,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R169" t="inlineStr">
+        <is>
+          <t>2M1</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -11385,6 +12230,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R170" t="inlineStr">
+        <is>
+          <t>2M2</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -11452,6 +12302,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R171" t="inlineStr">
+        <is>
+          <t>2N1</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -11519,6 +12374,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R172" t="inlineStr">
+        <is>
+          <t>2O1</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -11586,6 +12446,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R173" t="inlineStr">
+        <is>
+          <t>4S1</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -11653,6 +12518,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R174" t="inlineStr">
+        <is>
+          <t>4P1</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -11720,6 +12590,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R175" t="inlineStr">
+        <is>
+          <t>4P2</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -11787,6 +12662,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R176" t="inlineStr">
+        <is>
+          <t>4D1</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -11854,6 +12734,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R177" t="inlineStr">
+        <is>
+          <t>4D2</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -11921,6 +12806,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R178" t="inlineStr">
+        <is>
+          <t>4D3</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -11988,6 +12878,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R179" t="inlineStr">
+        <is>
+          <t>4F1</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -12055,6 +12950,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R180" t="inlineStr">
+        <is>
+          <t>4F2</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -12122,6 +13022,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R181" t="inlineStr">
+        <is>
+          <t>4F3</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -12189,6 +13094,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R182" t="inlineStr">
+        <is>
+          <t>4F4</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -12256,6 +13166,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R183" t="inlineStr">
+        <is>
+          <t>4G1</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -12323,6 +13238,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R184" t="inlineStr">
+        <is>
+          <t>4G2</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -12390,6 +13310,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R185" t="inlineStr">
+        <is>
+          <t>4G3</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -12457,6 +13382,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R186" t="inlineStr">
+        <is>
+          <t>4G4</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -12524,6 +13454,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R187" t="inlineStr">
+        <is>
+          <t>4H1</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -12591,6 +13526,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R188" t="inlineStr">
+        <is>
+          <t>4H2</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -12658,6 +13598,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R189" t="inlineStr">
+        <is>
+          <t>4H3</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -12725,6 +13670,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R190" t="inlineStr">
+        <is>
+          <t>4I1</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -12792,6 +13742,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R191" t="inlineStr">
+        <is>
+          <t>4I2</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -12859,6 +13814,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R192" t="inlineStr">
+        <is>
+          <t>4I3</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -12926,6 +13886,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R193" t="inlineStr">
+        <is>
+          <t>4K1</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -12993,6 +13958,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R194" t="inlineStr">
+        <is>
+          <t>4K2</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -13060,6 +14030,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R195" t="inlineStr">
+        <is>
+          <t>4L1</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -13127,6 +14102,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R196" t="inlineStr">
+        <is>
+          <t>4M1</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -13194,6 +14174,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R197" t="inlineStr">
+        <is>
+          <t>6P1</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -13261,6 +14246,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R198" t="inlineStr">
+        <is>
+          <t>6F1</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -13328,6 +14318,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R199" t="inlineStr">
+        <is>
+          <t>6H1</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -13395,6 +14390,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R200" t="inlineStr">
+        <is>
+          <t>1S1</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -13462,6 +14462,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R201" t="inlineStr">
+        <is>
+          <t>1S2</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -13529,6 +14534,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R202" t="inlineStr">
+        <is>
+          <t>1S3</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -13596,6 +14606,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R203" t="inlineStr">
+        <is>
+          <t>1S4</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -13663,6 +14678,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R204" t="inlineStr">
+        <is>
+          <t>1P1</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -13730,6 +14750,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R205" t="inlineStr">
+        <is>
+          <t>1D1</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -13797,6 +14822,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R206" t="inlineStr">
+        <is>
+          <t>1D2</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -13864,6 +14894,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R207" t="inlineStr">
+        <is>
+          <t>1D3</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -13931,6 +14966,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R208" t="inlineStr">
+        <is>
+          <t>1D4</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -13998,6 +15038,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R209" t="inlineStr">
+        <is>
+          <t>1D5</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -14065,6 +15110,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R210" t="inlineStr">
+        <is>
+          <t>1D6</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -14132,6 +15182,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R211" t="inlineStr">
+        <is>
+          <t>1F1</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -14199,6 +15254,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R212" t="inlineStr">
+        <is>
+          <t>1F2</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -14266,6 +15326,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R213" t="inlineStr">
+        <is>
+          <t>1F3</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -14333,6 +15398,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R214" t="inlineStr">
+        <is>
+          <t>1F4</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -14400,6 +15470,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R215" t="inlineStr">
+        <is>
+          <t>1G1</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -14467,6 +15542,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R216" t="inlineStr">
+        <is>
+          <t>1G2</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -14534,6 +15614,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R217" t="inlineStr">
+        <is>
+          <t>1G3</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -14601,6 +15686,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R218" t="inlineStr">
+        <is>
+          <t>1G4</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -14668,6 +15758,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R219" t="inlineStr">
+        <is>
+          <t>1G5</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -14735,6 +15830,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R220" t="inlineStr">
+        <is>
+          <t>1G6</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -14802,6 +15902,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R221" t="inlineStr">
+        <is>
+          <t>1G7</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -14869,6 +15974,11 @@
           <t>B</t>
         </is>
       </c>
+      <c r="R222" t="inlineStr">
+        <is>
+          <t>1G8</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -14936,6 +16046,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R223" t="inlineStr">
+        <is>
+          <t>1H1</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -15003,6 +16118,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R224" t="inlineStr">
+        <is>
+          <t>1H2</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -15070,6 +16190,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R225" t="inlineStr">
+        <is>
+          <t>1H3</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -15137,6 +16262,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R226" t="inlineStr">
+        <is>
+          <t>1H4</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -15204,6 +16334,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R227" t="inlineStr">
+        <is>
+          <t>1I1</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -15271,6 +16406,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R228" t="inlineStr">
+        <is>
+          <t>1I2</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -15338,6 +16478,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R229" t="inlineStr">
+        <is>
+          <t>1I3</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -15405,6 +16550,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R230" t="inlineStr">
+        <is>
+          <t>1I4</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -15472,6 +16622,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R231" t="inlineStr">
+        <is>
+          <t>1I5</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -15539,6 +16694,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R232" t="inlineStr">
+        <is>
+          <t>1I6</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -15606,6 +16766,11 @@
           <t>B</t>
         </is>
       </c>
+      <c r="R233" t="inlineStr">
+        <is>
+          <t>1I7</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -15673,6 +16838,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R234" t="inlineStr">
+        <is>
+          <t>1K1</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -15740,6 +16910,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R235" t="inlineStr">
+        <is>
+          <t>1K2</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -15807,6 +16982,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R236" t="inlineStr">
+        <is>
+          <t>1K3</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -15874,6 +17054,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R237" t="inlineStr">
+        <is>
+          <t>1L1</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -15941,6 +17126,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R238" t="inlineStr">
+        <is>
+          <t>1L2</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -16008,6 +17198,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R239" t="inlineStr">
+        <is>
+          <t>1L3</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -16075,6 +17270,11 @@
           <t>B</t>
         </is>
       </c>
+      <c r="R240" t="inlineStr">
+        <is>
+          <t>1L4</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -16142,6 +17342,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R241" t="inlineStr">
+        <is>
+          <t>1M1</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -16209,6 +17414,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R242" t="inlineStr">
+        <is>
+          <t>1M2</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -16276,6 +17486,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R243" t="inlineStr">
+        <is>
+          <t>1N1</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -16343,6 +17558,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R244" t="inlineStr">
+        <is>
+          <t>1N2</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -16410,6 +17630,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R245" t="inlineStr">
+        <is>
+          <t>1Q1</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -16477,6 +17702,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R246" t="inlineStr">
+        <is>
+          <t>3P1</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -16544,6 +17774,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R247" t="inlineStr">
+        <is>
+          <t>3P2</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -16611,6 +17846,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R248" t="inlineStr">
+        <is>
+          <t>3P3</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -16678,6 +17918,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R249" t="inlineStr">
+        <is>
+          <t>3P4</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -16745,6 +17990,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R250" t="inlineStr">
+        <is>
+          <t>3P5</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -16812,6 +18062,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R251" t="inlineStr">
+        <is>
+          <t>3P6</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -16879,6 +18134,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R252" t="inlineStr">
+        <is>
+          <t>3D1</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -16946,6 +18206,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R253" t="inlineStr">
+        <is>
+          <t>3D2</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -17013,6 +18278,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R254" t="inlineStr">
+        <is>
+          <t>3D3</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -17080,6 +18350,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R255" t="inlineStr">
+        <is>
+          <t>3D4</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -17147,6 +18422,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R256" t="inlineStr">
+        <is>
+          <t>3D5</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -17214,6 +18494,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R257" t="inlineStr">
+        <is>
+          <t>3F1</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -17281,6 +18566,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R258" t="inlineStr">
+        <is>
+          <t>3F2</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -17348,6 +18638,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R259" t="inlineStr">
+        <is>
+          <t>3F3</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -17415,6 +18710,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R260" t="inlineStr">
+        <is>
+          <t>3F4</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -17482,6 +18782,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R261" t="inlineStr">
+        <is>
+          <t>3F5</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -17549,6 +18854,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R262" t="inlineStr">
+        <is>
+          <t>3F6</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -17616,6 +18926,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R263" t="inlineStr">
+        <is>
+          <t>3F7</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -17683,6 +18998,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R264" t="inlineStr">
+        <is>
+          <t>3F8</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -17750,6 +19070,11 @@
           <t>B</t>
         </is>
       </c>
+      <c r="R265" t="inlineStr">
+        <is>
+          <t>3F9</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -17817,6 +19142,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R266" t="inlineStr">
+        <is>
+          <t>3G1</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -17884,6 +19214,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R267" t="inlineStr">
+        <is>
+          <t>3G2</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -17951,6 +19286,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R268" t="inlineStr">
+        <is>
+          <t>3G3</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -18018,6 +19358,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R269" t="inlineStr">
+        <is>
+          <t>3G4</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -18085,6 +19430,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R270" t="inlineStr">
+        <is>
+          <t>3G5</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -18152,6 +19502,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R271" t="inlineStr">
+        <is>
+          <t>3G6</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -18219,6 +19574,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R272" t="inlineStr">
+        <is>
+          <t>3G7</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -18286,6 +19646,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R273" t="inlineStr">
+        <is>
+          <t>3H1</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -18353,6 +19718,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R274" t="inlineStr">
+        <is>
+          <t>3H2</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -18420,6 +19790,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R275" t="inlineStr">
+        <is>
+          <t>3H3</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -18487,6 +19862,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R276" t="inlineStr">
+        <is>
+          <t>3H4</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -18554,6 +19934,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R277" t="inlineStr">
+        <is>
+          <t>3H5</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -18621,6 +20006,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R278" t="inlineStr">
+        <is>
+          <t>3H6</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -18688,6 +20078,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R279" t="inlineStr">
+        <is>
+          <t>3H7</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -18755,6 +20150,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R280" t="inlineStr">
+        <is>
+          <t>3H8</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -18822,6 +20222,11 @@
           <t>B</t>
         </is>
       </c>
+      <c r="R281" t="inlineStr">
+        <is>
+          <t>3H9</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -18889,6 +20294,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R282" t="inlineStr">
+        <is>
+          <t>3I1</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -18956,6 +20366,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R283" t="inlineStr">
+        <is>
+          <t>3I2</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -19023,6 +20438,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R284" t="inlineStr">
+        <is>
+          <t>3I3</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -19090,6 +20510,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R285" t="inlineStr">
+        <is>
+          <t>3I4</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -19157,6 +20582,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R286" t="inlineStr">
+        <is>
+          <t>3I5</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -19224,6 +20654,11 @@
           <t>B</t>
         </is>
       </c>
+      <c r="R287" t="inlineStr">
+        <is>
+          <t>3I6</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -19291,6 +20726,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R288" t="inlineStr">
+        <is>
+          <t>3K1</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -19358,6 +20798,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R289" t="inlineStr">
+        <is>
+          <t>3K2</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -19425,6 +20870,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R290" t="inlineStr">
+        <is>
+          <t>3K3</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -19492,6 +20942,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R291" t="inlineStr">
+        <is>
+          <t>3K4</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -19559,6 +21014,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R292" t="inlineStr">
+        <is>
+          <t>3K5</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -19626,6 +21086,11 @@
           <t>B</t>
         </is>
       </c>
+      <c r="R293" t="inlineStr">
+        <is>
+          <t>3K6</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -19693,6 +21158,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R294" t="inlineStr">
+        <is>
+          <t>3L1</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -19760,6 +21230,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R295" t="inlineStr">
+        <is>
+          <t>3L2</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -19827,6 +21302,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R296" t="inlineStr">
+        <is>
+          <t>3L3</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -19894,6 +21374,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R297" t="inlineStr">
+        <is>
+          <t>3M1</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -19961,6 +21446,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R298" t="inlineStr">
+        <is>
+          <t>3M2</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -20028,6 +21518,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R299" t="inlineStr">
+        <is>
+          <t>3M3</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -20095,6 +21590,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R300" t="inlineStr">
+        <is>
+          <t>3N1</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -20162,6 +21662,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R301" t="inlineStr">
+        <is>
+          <t>3O1</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -20229,6 +21734,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R302" t="inlineStr">
+        <is>
+          <t>5S1</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -20296,6 +21806,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R303" t="inlineStr">
+        <is>
+          <t>5P1</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -20363,6 +21878,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R304" t="inlineStr">
+        <is>
+          <t>5D1</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -20430,6 +21950,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R305" t="inlineStr">
+        <is>
+          <t>5D2</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -20497,6 +22022,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R306" t="inlineStr">
+        <is>
+          <t>5D3</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -20564,6 +22094,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R307" t="inlineStr">
+        <is>
+          <t>5F1</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -20631,6 +22166,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R308" t="inlineStr">
+        <is>
+          <t>5F2</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -20698,6 +22238,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R309" t="inlineStr">
+        <is>
+          <t>5G1</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -20765,6 +22310,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R310" t="inlineStr">
+        <is>
+          <t>5G2</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -20832,6 +22382,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R311" t="inlineStr">
+        <is>
+          <t>5G3</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -20899,6 +22454,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R312" t="inlineStr">
+        <is>
+          <t>5H1</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -20966,6 +22526,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R313" t="inlineStr">
+        <is>
+          <t>5H2</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -21033,6 +22598,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R314" t="inlineStr">
+        <is>
+          <t>5I1</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -21100,6 +22670,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R315" t="inlineStr">
+        <is>
+          <t>5I2</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -21167,6 +22742,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R316" t="inlineStr">
+        <is>
+          <t>5K1</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -21234,6 +22814,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R317" t="inlineStr">
+        <is>
+          <t>5L1</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -21301,6 +22886,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R318" t="inlineStr">
+        <is>
+          <t>7F1</t>
+        </is>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -21368,6 +22958,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R319" t="inlineStr">
+        <is>
+          <t>2S1</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -21435,6 +23030,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R320" t="inlineStr">
+        <is>
+          <t>2S2</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -21502,6 +23102,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R321" t="inlineStr">
+        <is>
+          <t>2P1</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -21569,6 +23174,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R322" t="inlineStr">
+        <is>
+          <t>2P2</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -21636,6 +23246,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R323" t="inlineStr">
+        <is>
+          <t>2P3</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -21703,6 +23318,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R324" t="inlineStr">
+        <is>
+          <t>2P4</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -21770,6 +23390,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R325" t="inlineStr">
+        <is>
+          <t>2P5</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -21837,6 +23462,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R326" t="inlineStr">
+        <is>
+          <t>2D1</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -21904,6 +23534,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R327" t="inlineStr">
+        <is>
+          <t>2D2</t>
+        </is>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -21971,6 +23606,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R328" t="inlineStr">
+        <is>
+          <t>2D3</t>
+        </is>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -22038,6 +23678,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R329" t="inlineStr">
+        <is>
+          <t>2D4</t>
+        </is>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -22105,6 +23750,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R330" t="inlineStr">
+        <is>
+          <t>2D5</t>
+        </is>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -22172,6 +23822,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R331" t="inlineStr">
+        <is>
+          <t>2D6</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -22239,6 +23894,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R332" t="inlineStr">
+        <is>
+          <t>2D7</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -22306,6 +23966,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R333" t="inlineStr">
+        <is>
+          <t>2F1</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -22373,6 +24038,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R334" t="inlineStr">
+        <is>
+          <t>2F2</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -22440,6 +24110,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R335" t="inlineStr">
+        <is>
+          <t>2F3</t>
+        </is>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -22507,6 +24182,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R336" t="inlineStr">
+        <is>
+          <t>2F4</t>
+        </is>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -22574,6 +24254,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R337" t="inlineStr">
+        <is>
+          <t>2F5</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -22641,6 +24326,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R338" t="inlineStr">
+        <is>
+          <t>2F6</t>
+        </is>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -22708,6 +24398,11 @@
           <t>B</t>
         </is>
       </c>
+      <c r="R339" t="inlineStr">
+        <is>
+          <t>2F7</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -22775,6 +24470,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R340" t="inlineStr">
+        <is>
+          <t>2F8</t>
+        </is>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -22842,6 +24542,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R341" t="inlineStr">
+        <is>
+          <t>2F9</t>
+        </is>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
@@ -22909,6 +24614,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R342" t="inlineStr">
+        <is>
+          <t>2F10</t>
+        </is>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
@@ -22976,6 +24686,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R343" t="inlineStr">
+        <is>
+          <t>2G1</t>
+        </is>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
@@ -23043,6 +24758,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R344" t="inlineStr">
+        <is>
+          <t>2G2</t>
+        </is>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
@@ -23110,6 +24830,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R345" t="inlineStr">
+        <is>
+          <t>2G3</t>
+        </is>
+      </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
@@ -23177,6 +24902,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R346" t="inlineStr">
+        <is>
+          <t>2G4</t>
+        </is>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
@@ -23244,6 +24974,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R347" t="inlineStr">
+        <is>
+          <t>2G5</t>
+        </is>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
@@ -23311,6 +25046,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R348" t="inlineStr">
+        <is>
+          <t>2G6</t>
+        </is>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
@@ -23378,6 +25118,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R349" t="inlineStr">
+        <is>
+          <t>2G7</t>
+        </is>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
@@ -23445,6 +25190,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R350" t="inlineStr">
+        <is>
+          <t>2G8</t>
+        </is>
+      </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
@@ -23512,6 +25262,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R351" t="inlineStr">
+        <is>
+          <t>2G9</t>
+        </is>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
@@ -23579,6 +25334,11 @@
           <t>B</t>
         </is>
       </c>
+      <c r="R352" t="inlineStr">
+        <is>
+          <t>2G10</t>
+        </is>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
@@ -23646,6 +25406,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R353" t="inlineStr">
+        <is>
+          <t>2H1</t>
+        </is>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
@@ -23713,6 +25478,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R354" t="inlineStr">
+        <is>
+          <t>2H2</t>
+        </is>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
@@ -23780,6 +25550,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R355" t="inlineStr">
+        <is>
+          <t>2H3</t>
+        </is>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
@@ -23847,6 +25622,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R356" t="inlineStr">
+        <is>
+          <t>2H4</t>
+        </is>
+      </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
@@ -23914,6 +25694,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R357" t="inlineStr">
+        <is>
+          <t>2H5</t>
+        </is>
+      </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
@@ -23981,6 +25766,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R358" t="inlineStr">
+        <is>
+          <t>2H6</t>
+        </is>
+      </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
@@ -24048,6 +25838,11 @@
           <t>B</t>
         </is>
       </c>
+      <c r="R359" t="inlineStr">
+        <is>
+          <t>2H7</t>
+        </is>
+      </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
@@ -24115,6 +25910,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R360" t="inlineStr">
+        <is>
+          <t>2H8</t>
+        </is>
+      </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
@@ -24182,6 +25982,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R361" t="inlineStr">
+        <is>
+          <t>2H9</t>
+        </is>
+      </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
@@ -24249,6 +26054,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R362" t="inlineStr">
+        <is>
+          <t>2I1</t>
+        </is>
+      </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
@@ -24316,6 +26126,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R363" t="inlineStr">
+        <is>
+          <t>2I2</t>
+        </is>
+      </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
@@ -24383,6 +26198,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R364" t="inlineStr">
+        <is>
+          <t>2I3</t>
+        </is>
+      </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
@@ -24450,6 +26270,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R365" t="inlineStr">
+        <is>
+          <t>2I4</t>
+        </is>
+      </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
@@ -24517,6 +26342,11 @@
           <t>B</t>
         </is>
       </c>
+      <c r="R366" t="inlineStr">
+        <is>
+          <t>2I5</t>
+        </is>
+      </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="n">
@@ -24584,6 +26414,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R367" t="inlineStr">
+        <is>
+          <t>2I6</t>
+        </is>
+      </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="n">
@@ -24651,6 +26486,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R368" t="inlineStr">
+        <is>
+          <t>2I7</t>
+        </is>
+      </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="n">
@@ -24718,6 +26558,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R369" t="inlineStr">
+        <is>
+          <t>2I8</t>
+        </is>
+      </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="n">
@@ -24785,6 +26630,11 @@
           <t>B</t>
         </is>
       </c>
+      <c r="R370" t="inlineStr">
+        <is>
+          <t>2I9</t>
+        </is>
+      </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="n">
@@ -24852,6 +26702,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R371" t="inlineStr">
+        <is>
+          <t>2K1</t>
+        </is>
+      </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="n">
@@ -24919,6 +26774,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R372" t="inlineStr">
+        <is>
+          <t>2K2</t>
+        </is>
+      </c>
     </row>
     <row r="373">
       <c r="A373" s="1" t="n">
@@ -24986,6 +26846,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R373" t="inlineStr">
+        <is>
+          <t>2K3</t>
+        </is>
+      </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="n">
@@ -25053,6 +26918,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R374" t="inlineStr">
+        <is>
+          <t>2K4</t>
+        </is>
+      </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="n">
@@ -25120,6 +26990,11 @@
           <t>B</t>
         </is>
       </c>
+      <c r="R375" t="inlineStr">
+        <is>
+          <t>2K5</t>
+        </is>
+      </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="n">
@@ -25187,6 +27062,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R376" t="inlineStr">
+        <is>
+          <t>2K6</t>
+        </is>
+      </c>
     </row>
     <row r="377">
       <c r="A377" s="1" t="n">
@@ -25254,6 +27134,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R377" t="inlineStr">
+        <is>
+          <t>2K7</t>
+        </is>
+      </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="n">
@@ -25321,6 +27206,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R378" t="inlineStr">
+        <is>
+          <t>2L1</t>
+        </is>
+      </c>
     </row>
     <row r="379">
       <c r="A379" s="1" t="n">
@@ -25388,6 +27278,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R379" t="inlineStr">
+        <is>
+          <t>2L2</t>
+        </is>
+      </c>
     </row>
     <row r="380">
       <c r="A380" s="1" t="n">
@@ -25455,6 +27350,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R380" t="inlineStr">
+        <is>
+          <t>2L3</t>
+        </is>
+      </c>
     </row>
     <row r="381">
       <c r="A381" s="1" t="n">
@@ -25522,6 +27422,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R381" t="inlineStr">
+        <is>
+          <t>2L4</t>
+        </is>
+      </c>
     </row>
     <row r="382">
       <c r="A382" s="1" t="n">
@@ -25589,6 +27494,11 @@
           <t>B</t>
         </is>
       </c>
+      <c r="R382" t="inlineStr">
+        <is>
+          <t>2L5</t>
+        </is>
+      </c>
     </row>
     <row r="383">
       <c r="A383" s="1" t="n">
@@ -25656,6 +27566,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R383" t="inlineStr">
+        <is>
+          <t>2M1</t>
+        </is>
+      </c>
     </row>
     <row r="384">
       <c r="A384" s="1" t="n">
@@ -25723,6 +27638,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R384" t="inlineStr">
+        <is>
+          <t>2M2</t>
+        </is>
+      </c>
     </row>
     <row r="385">
       <c r="A385" s="1" t="n">
@@ -25790,6 +27710,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R385" t="inlineStr">
+        <is>
+          <t>2M3</t>
+        </is>
+      </c>
     </row>
     <row r="386">
       <c r="A386" s="1" t="n">
@@ -25857,6 +27782,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R386" t="inlineStr">
+        <is>
+          <t>2M4</t>
+        </is>
+      </c>
     </row>
     <row r="387">
       <c r="A387" s="1" t="n">
@@ -25924,6 +27854,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R387" t="inlineStr">
+        <is>
+          <t>2N1</t>
+        </is>
+      </c>
     </row>
     <row r="388">
       <c r="A388" s="1" t="n">
@@ -25991,6 +27926,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R388" t="inlineStr">
+        <is>
+          <t>2N2</t>
+        </is>
+      </c>
     </row>
     <row r="389">
       <c r="A389" s="1" t="n">
@@ -26058,6 +27998,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R389" t="inlineStr">
+        <is>
+          <t>2O1</t>
+        </is>
+      </c>
     </row>
     <row r="390">
       <c r="A390" s="1" t="n">
@@ -26125,6 +28070,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R390" t="inlineStr">
+        <is>
+          <t>2Q1</t>
+        </is>
+      </c>
     </row>
     <row r="391">
       <c r="A391" s="1" t="n">
@@ -26192,6 +28142,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R391" t="inlineStr">
+        <is>
+          <t>4S1</t>
+        </is>
+      </c>
     </row>
     <row r="392">
       <c r="A392" s="1" t="n">
@@ -26259,6 +28214,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R392" t="inlineStr">
+        <is>
+          <t>4S2</t>
+        </is>
+      </c>
     </row>
     <row r="393">
       <c r="A393" s="1" t="n">
@@ -26326,6 +28286,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R393" t="inlineStr">
+        <is>
+          <t>4P1</t>
+        </is>
+      </c>
     </row>
     <row r="394">
       <c r="A394" s="1" t="n">
@@ -26393,6 +28358,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R394" t="inlineStr">
+        <is>
+          <t>4P2</t>
+        </is>
+      </c>
     </row>
     <row r="395">
       <c r="A395" s="1" t="n">
@@ -26460,6 +28430,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R395" t="inlineStr">
+        <is>
+          <t>4D1</t>
+        </is>
+      </c>
     </row>
     <row r="396">
       <c r="A396" s="1" t="n">
@@ -26527,6 +28502,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R396" t="inlineStr">
+        <is>
+          <t>4D2</t>
+        </is>
+      </c>
     </row>
     <row r="397">
       <c r="A397" s="1" t="n">
@@ -26594,6 +28574,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R397" t="inlineStr">
+        <is>
+          <t>4D3</t>
+        </is>
+      </c>
     </row>
     <row r="398">
       <c r="A398" s="1" t="n">
@@ -26661,6 +28646,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R398" t="inlineStr">
+        <is>
+          <t>4D4</t>
+        </is>
+      </c>
     </row>
     <row r="399">
       <c r="A399" s="1" t="n">
@@ -26728,6 +28718,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R399" t="inlineStr">
+        <is>
+          <t>4D5</t>
+        </is>
+      </c>
     </row>
     <row r="400">
       <c r="A400" s="1" t="n">
@@ -26795,6 +28790,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R400" t="inlineStr">
+        <is>
+          <t>4D6</t>
+        </is>
+      </c>
     </row>
     <row r="401">
       <c r="A401" s="1" t="n">
@@ -26862,6 +28862,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R401" t="inlineStr">
+        <is>
+          <t>4F1</t>
+        </is>
+      </c>
     </row>
     <row r="402">
       <c r="A402" s="1" t="n">
@@ -26929,6 +28934,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R402" t="inlineStr">
+        <is>
+          <t>4F2</t>
+        </is>
+      </c>
     </row>
     <row r="403">
       <c r="A403" s="1" t="n">
@@ -26996,6 +29006,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R403" t="inlineStr">
+        <is>
+          <t>4F3</t>
+        </is>
+      </c>
     </row>
     <row r="404">
       <c r="A404" s="1" t="n">
@@ -27063,6 +29078,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R404" t="inlineStr">
+        <is>
+          <t>4F4</t>
+        </is>
+      </c>
     </row>
     <row r="405">
       <c r="A405" s="1" t="n">
@@ -27130,6 +29150,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R405" t="inlineStr">
+        <is>
+          <t>4F5</t>
+        </is>
+      </c>
     </row>
     <row r="406">
       <c r="A406" s="1" t="n">
@@ -27197,6 +29222,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R406" t="inlineStr">
+        <is>
+          <t>4G1</t>
+        </is>
+      </c>
     </row>
     <row r="407">
       <c r="A407" s="1" t="n">
@@ -27264,6 +29294,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R407" t="inlineStr">
+        <is>
+          <t>4G2</t>
+        </is>
+      </c>
     </row>
     <row r="408">
       <c r="A408" s="1" t="n">
@@ -27331,6 +29366,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R408" t="inlineStr">
+        <is>
+          <t>4G3</t>
+        </is>
+      </c>
     </row>
     <row r="409">
       <c r="A409" s="1" t="n">
@@ -27398,6 +29438,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R409" t="inlineStr">
+        <is>
+          <t>4G4</t>
+        </is>
+      </c>
     </row>
     <row r="410">
       <c r="A410" s="1" t="n">
@@ -27465,6 +29510,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R410" t="inlineStr">
+        <is>
+          <t>4G5</t>
+        </is>
+      </c>
     </row>
     <row r="411">
       <c r="A411" s="1" t="n">
@@ -27532,6 +29582,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R411" t="inlineStr">
+        <is>
+          <t>4G6</t>
+        </is>
+      </c>
     </row>
     <row r="412">
       <c r="A412" s="1" t="n">
@@ -27599,6 +29654,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R412" t="inlineStr">
+        <is>
+          <t>4G7</t>
+        </is>
+      </c>
     </row>
     <row r="413">
       <c r="A413" s="1" t="n">
@@ -27666,6 +29726,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R413" t="inlineStr">
+        <is>
+          <t>4H1</t>
+        </is>
+      </c>
     </row>
     <row r="414">
       <c r="A414" s="1" t="n">
@@ -27733,6 +29798,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R414" t="inlineStr">
+        <is>
+          <t>4H2</t>
+        </is>
+      </c>
     </row>
     <row r="415">
       <c r="A415" s="1" t="n">
@@ -27800,6 +29870,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R415" t="inlineStr">
+        <is>
+          <t>4H3</t>
+        </is>
+      </c>
     </row>
     <row r="416">
       <c r="A416" s="1" t="n">
@@ -27867,6 +29942,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R416" t="inlineStr">
+        <is>
+          <t>4H4</t>
+        </is>
+      </c>
     </row>
     <row r="417">
       <c r="A417" s="1" t="n">
@@ -27934,6 +30014,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R417" t="inlineStr">
+        <is>
+          <t>4H5</t>
+        </is>
+      </c>
     </row>
     <row r="418">
       <c r="A418" s="1" t="n">
@@ -28001,6 +30086,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R418" t="inlineStr">
+        <is>
+          <t>4I1</t>
+        </is>
+      </c>
     </row>
     <row r="419">
       <c r="A419" s="1" t="n">
@@ -28068,6 +30158,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R419" t="inlineStr">
+        <is>
+          <t>4I2</t>
+        </is>
+      </c>
     </row>
     <row r="420">
       <c r="A420" s="1" t="n">
@@ -28135,6 +30230,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R420" t="inlineStr">
+        <is>
+          <t>4I3</t>
+        </is>
+      </c>
     </row>
     <row r="421">
       <c r="A421" s="1" t="n">
@@ -28202,6 +30302,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R421" t="inlineStr">
+        <is>
+          <t>4I4</t>
+        </is>
+      </c>
     </row>
     <row r="422">
       <c r="A422" s="1" t="n">
@@ -28269,6 +30374,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R422" t="inlineStr">
+        <is>
+          <t>4I5</t>
+        </is>
+      </c>
     </row>
     <row r="423">
       <c r="A423" s="1" t="n">
@@ -28336,6 +30446,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R423" t="inlineStr">
+        <is>
+          <t>4K1</t>
+        </is>
+      </c>
     </row>
     <row r="424">
       <c r="A424" s="1" t="n">
@@ -28403,6 +30518,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R424" t="inlineStr">
+        <is>
+          <t>4K2</t>
+        </is>
+      </c>
     </row>
     <row r="425">
       <c r="A425" s="1" t="n">
@@ -28470,6 +30590,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R425" t="inlineStr">
+        <is>
+          <t>4K3</t>
+        </is>
+      </c>
     </row>
     <row r="426">
       <c r="A426" s="1" t="n">
@@ -28537,6 +30662,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R426" t="inlineStr">
+        <is>
+          <t>4L1</t>
+        </is>
+      </c>
     </row>
     <row r="427">
       <c r="A427" s="1" t="n">
@@ -28604,6 +30734,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R427" t="inlineStr">
+        <is>
+          <t>4L2</t>
+        </is>
+      </c>
     </row>
     <row r="428">
       <c r="A428" s="1" t="n">
@@ -28671,6 +30806,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R428" t="inlineStr">
+        <is>
+          <t>4L3</t>
+        </is>
+      </c>
     </row>
     <row r="429">
       <c r="A429" s="1" t="n">
@@ -28738,6 +30878,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R429" t="inlineStr">
+        <is>
+          <t>4M1</t>
+        </is>
+      </c>
     </row>
     <row r="430">
       <c r="A430" s="1" t="n">
@@ -28805,6 +30950,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R430" t="inlineStr">
+        <is>
+          <t>4N1</t>
+        </is>
+      </c>
     </row>
     <row r="431">
       <c r="A431" s="1" t="n">
@@ -28872,6 +31022,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R431" t="inlineStr">
+        <is>
+          <t>6P1</t>
+        </is>
+      </c>
     </row>
     <row r="432">
       <c r="A432" s="1" t="n">
@@ -28939,6 +31094,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R432" t="inlineStr">
+        <is>
+          <t>6D1</t>
+        </is>
+      </c>
     </row>
     <row r="433">
       <c r="A433" s="1" t="n">
@@ -29006,6 +31166,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R433" t="inlineStr">
+        <is>
+          <t>6F1</t>
+        </is>
+      </c>
     </row>
     <row r="434">
       <c r="A434" s="1" t="n">
@@ -29073,6 +31238,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R434" t="inlineStr">
+        <is>
+          <t>6G1</t>
+        </is>
+      </c>
     </row>
     <row r="435">
       <c r="A435" s="1" t="n">
@@ -29140,6 +31310,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R435" t="inlineStr">
+        <is>
+          <t>6H1</t>
+        </is>
+      </c>
     </row>
     <row r="436">
       <c r="A436" s="1" t="n">
@@ -29207,6 +31382,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="R436" t="inlineStr">
+        <is>
+          <t>6I1</t>
+        </is>
+      </c>
     </row>
     <row r="437">
       <c r="A437" s="1" t="n">
@@ -29272,6 +31452,11 @@
       <c r="Q437" t="inlineStr">
         <is>
           <t>A</t>
+        </is>
+      </c>
+      <c r="R437" t="inlineStr">
+        <is>
+          <t>8S1</t>
         </is>
       </c>
     </row>
